--- a/ECE 478 - Project 1 Data.xlsx
+++ b/ECE 478 - Project 1 Data.xlsx
@@ -457,7 +457,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Throughput of Node A</a:t>
+              <a:t>Throughput of Node A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -964,7 +964,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Fairness</a:t>
+              <a:t>Fairness</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1476,7 +1476,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Throughput of Node C</a:t>
+              <a:t>Throughput of Node C</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1983,7 +1983,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Throughput of Node A Twice Rate</a:t>
+              <a:t>Throughput of Node A Twice Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2490,7 +2490,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Throughput of Node C Twice Rate</a:t>
+              <a:t>Throughput of Node C Twice Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2997,7 +2997,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Collisions of Node A</a:t>
+              <a:t>Collisions of Node A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3504,7 +3504,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Collisions of Node C</a:t>
+              <a:t>Collisions of Node C</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4011,7 +4011,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Collisions of Node A Twice Rate</a:t>
+              <a:t>Collisions of Node A Twice Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4518,7 +4518,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Collisions of Node B Twice Rate</a:t>
+              <a:t>Collisions of Node B Twice Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5025,7 +5025,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scenario A: Fairness</a:t>
+              <a:t>Fairness</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -11504,8 +11504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ECE 478 - Project 1 Data.xlsx
+++ b/ECE 478 - Project 1 Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndrewCamps/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpari\Documents\ECE478\DCF-802.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
     <t>Node A</t>
   </si>
@@ -53,12 +53,62 @@
     <t>Scenario B: Collisions N (Pkts)</t>
   </si>
   <si>
+    <t>Rates: λ = λc</t>
+  </si>
+  <si>
+    <t>Scenario A: Fairness Index FI (A/C)</t>
+  </si>
+  <si>
+    <t>Scenario B: Fairness Index FI (A/C)</t>
+  </si>
+  <si>
+    <r>
+      <t>Rates: λ = λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rates A: λ = 2λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rates C: λ = λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>λ = λ</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
@@ -68,7 +118,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
@@ -77,7 +126,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
@@ -92,7 +140,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
@@ -102,7 +149,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
@@ -111,7 +157,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
@@ -121,77 +166,18 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Rates: λ = λ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <t>Rates: λ = λc</t>
-  </si>
-  <si>
-    <r>
-      <t>Rates A: λ = 2λ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rates C: λ = λ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
-    <t>Scenario A: Fairness Index FI (A/C)</t>
-  </si>
-  <si>
-    <t>Scenario B: Fairness Index FI (A/C)</t>
+    <t>CSMA (VCS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,14 +201,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -327,75 +326,73 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,12 +409,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -462,7 +462,796 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10512620975286618"/>
+          <c:y val="0.12768087855297158"/>
+          <c:w val="0.81088706161391921"/>
+          <c:h val="0.73958635035150999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3904000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0819999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A22E-4459-A43B-8B4B5FB3AF14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMA (VCS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2440000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A22E-4459-A43B-8B4B5FB3AF14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1993949360"/>
+        <c:axId val="-1952314992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1993949360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1952314992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1952314992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Tthroughput (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1993949360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fairness</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Index Twice Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -509,7 +1298,784 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0029859999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.999066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9381980000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5425770000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5158-4F7D-B28B-25E0CB2CFBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMA (VCS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0030190000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9990520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.929689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.456842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5158-4F7D-B28B-25E0CB2CFBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1954037872"/>
+        <c:axId val="-1989192112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1954037872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1989192112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1989192112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Average Fairness Index</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr cap="none" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>(# of Successful Pkts A / # of Successful Pkts C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1954037872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput of Node C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -578,60 +2144,895 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:f>Sheet1!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5964</c:v>
+                  <c:v>0.5988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2024</c:v>
+                  <c:v>1.1963999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3904</c:v>
+                  <c:v>2.3759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.082</c:v>
+                  <c:v>3.0840000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2740-42E8-92A9-A5AA941AF133}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0312000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2740-42E8-92A9-A5AA941AF133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2054611504"/>
+        <c:axId val="-1991344848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2054611504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1991344848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1991344848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Throughput (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2054611504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput of Node A Twice Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1988000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3927999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3336000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0948000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9D6-4F44-852B-C3447A1EA128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -696,63 +3097,195 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="rnd">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C9D6-4F44-852B-C3447A1EA128}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>Sheet1!$A$12:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:f>Sheet1!$C$12:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5964</c:v>
+                  <c:v>1.1988000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2024</c:v>
+                  <c:v>2.3927999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3964</c:v>
+                  <c:v>3.4079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.244</c:v>
+                  <c:v>3.0960000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9D6-4F44-852B-C3447A1EA128}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1993949360"/>
-        <c:axId val="-1952314992"/>
+        <c:axId val="-1951363312"/>
+        <c:axId val="-1991200992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1993949360"/>
+        <c:axId val="-1951363312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,6 +3305,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -805,12 +3392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952314992"/>
+        <c:crossAx val="-1991200992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1952314992"/>
+        <c:axId val="-1991200992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,6 +3417,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Average Thorughput (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -863,7 +3504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1993949360"/>
+        <c:crossAx val="-1951363312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -875,6 +3516,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -923,8 +3594,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -964,17 +3635,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Fairness</a:t>
+              <a:t>Throughput of Node C Twice Rate</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Index Twice Rate</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1021,7 +3686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$41</c:f>
+              <c:f>Sheet1!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1031,7 +3696,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1090,69 +3755,130 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$42:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$D$12:$D$15</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>Rates C: λ = λC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:f>Sheet1!$E$12:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.002986</c:v>
+                  <c:v>0.5988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.999066</c:v>
+                  <c:v>1.1976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.938198</c:v>
+                  <c:v>1.8360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.542577</c:v>
+                  <c:v>2.1072000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99AC-47A1-86FE-81CBD084EADA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$41</c:f>
+              <c:f>Sheet1!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -1208,63 +3934,124 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$42:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$D$12:$D$15</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>Rates C: λ = λC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:f>Sheet1!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.003019</c:v>
+                  <c:v>0.5988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.999052</c:v>
+                  <c:v>1.1976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.929689</c:v>
+                  <c:v>1.8828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.456842</c:v>
+                  <c:v>2.2044000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99AC-47A1-86FE-81CBD084EADA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1954037872"/>
-        <c:axId val="-1989192112"/>
+        <c:axId val="-1877820736"/>
+        <c:axId val="-1954069952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1954037872"/>
+        <c:axId val="-1877820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,6 +4071,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1317,12 +4158,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989192112"/>
+        <c:crossAx val="-1954069952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1989192112"/>
+        <c:axId val="-1954069952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,6 +4183,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Throughput (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1375,7 +4276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1954037872"/>
+        <c:crossAx val="-1877820736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1387,6 +4288,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1435,8 +4366,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1476,12 +4407,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node C</a:t>
+              <a:t>Collisions of Node A</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1528,7 +4458,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>Sheet1!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1538,7 +4468,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1597,69 +4527,131 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$7</c:f>
+              <c:f>Sheet1!$B$20:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1964</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.376</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.084</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBFB-4C31-A8CA-5623389BA1E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>Sheet1!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -1715,63 +4707,125 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:f>Sheet1!$C$20:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1964</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3952</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0312</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBFB-4C31-A8CA-5623389BA1E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2054611504"/>
-        <c:axId val="-1991344848"/>
+        <c:axId val="-1877533216"/>
+        <c:axId val="-1877531856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2054611504"/>
+        <c:axId val="-1877533216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,6 +4845,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1824,12 +4932,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1991344848"/>
+        <c:crossAx val="-1877531856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1991344848"/>
+        <c:axId val="-1877531856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,6 +4957,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average  Number of Collisions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" cap="none" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1882,7 +5047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2054611504"/>
+        <c:crossAx val="-1877533216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1894,6 +5059,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1942,8 +5137,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1983,12 +5178,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node A Twice Rate</a:t>
+              <a:t>Collisions of Node C</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2035,7 +5229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>Sheet1!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2045,7 +5239,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2104,69 +5298,131 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$15</c:f>
+              <c:f>Sheet1!$D$20:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$15</c:f>
+              <c:f>Sheet1!$E$20:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1988</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3928</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3336</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0948</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F97-4DCE-8A66-F55A315F6821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$11</c:f>
+              <c:f>Sheet1!$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2222,63 +5478,125 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$15</c:f>
+              <c:f>Sheet1!$D$20:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$C$15</c:f>
+              <c:f>Sheet1!$F$20:$F$23</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1988</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3928</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.408</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.096</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F97-4DCE-8A66-F55A315F6821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1951363312"/>
-        <c:axId val="-1991200992"/>
+        <c:axId val="-1877919648"/>
+        <c:axId val="-1877916032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1951363312"/>
+        <c:axId val="-1877919648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,6 +5616,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2331,12 +5703,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1991200992"/>
+        <c:crossAx val="-1877916032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1991200992"/>
+        <c:axId val="-1877916032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,6 +5728,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average Number of Collisions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2389,7 +5817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1951363312"/>
+        <c:crossAx val="-1877919648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2401,6 +5829,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2449,8 +5907,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2490,12 +5948,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node C Twice Rate</a:t>
+              <a:t>Collisions of Node A Twice Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2542,7 +5999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$11</c:f>
+              <c:f>Sheet1!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2552,7 +6009,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2611,69 +6068,131 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$D$15</c:f>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$E$15</c:f>
+              <c:f>Sheet1!$B$28:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1976</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.836</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1072</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D31-4D8B-AB39-DF9CC095A65A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$11</c:f>
+              <c:f>Sheet1!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2729,63 +6248,125 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$D$15</c:f>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$12:$F$15</c:f>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1976</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8828</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2044</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D31-4D8B-AB39-DF9CC095A65A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1877820736"/>
-        <c:axId val="-1954069952"/>
+        <c:axId val="-1953047216"/>
+        <c:axId val="-1876712272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1877820736"/>
+        <c:axId val="-1953047216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,6 +6386,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2838,12 +6473,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1954069952"/>
+        <c:crossAx val="-1876712272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1954069952"/>
+        <c:axId val="-1876712272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,6 +6498,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Average Number of COllisions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2896,7 +6585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877820736"/>
+        <c:crossAx val="-1953047216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2908,6 +6597,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2956,8 +6675,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2997,12 +6716,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node A</a:t>
+              <a:t>Collisions of Node B Twice Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3049,7 +6767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>Sheet1!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3059,7 +6777,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3118,69 +6836,131 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$23</c:f>
+              <c:f>Sheet1!$D$28:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$23</c:f>
+              <c:f>Sheet1!$E$28:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>559.0</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>378.0</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3A8-4972-BCC0-30343826FB9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>Sheet1!$F$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -3236,63 +7016,125 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$23</c:f>
+              <c:f>Sheet1!$D$28:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$23</c:f>
+              <c:f>Sheet1!$F$28:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>488.0</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397.0</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3A8-4972-BCC0-30343826FB9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1877533216"/>
-        <c:axId val="-1877531856"/>
+        <c:axId val="-1878805376"/>
+        <c:axId val="-1878804016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1877533216"/>
+        <c:axId val="-1878805376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,6 +7154,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3345,12 +7241,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877531856"/>
+        <c:crossAx val="-1878804016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1877531856"/>
+        <c:axId val="-1878804016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,6 +7266,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Average Number of COllisions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3403,7 +7353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877533216"/>
+        <c:crossAx val="-1878805376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3415,6 +7365,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3463,8 +7443,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3504,12 +7484,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node C</a:t>
+              <a:t>Fairness</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Index</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3556,7 +7540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$19</c:f>
+              <c:f>Sheet1!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3566,7 +7550,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3625,69 +7609,131 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$23</c:f>
+              <c:f>Sheet1!$D$35:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$E$23</c:f>
+              <c:f>Sheet1!$E$35:$E$38</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>0.99898399999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.0</c:v>
+                  <c:v>1.0053160000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>559.0</c:v>
+                  <c:v>1.0061789999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>378.0</c:v>
+                  <c:v>0.68030400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3BC-41D2-A2B3-0E4E616A68B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$19</c:f>
+              <c:f>Sheet1!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VCS</c:v>
+                  <c:v>CSMA (VCS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -3743,1414 +7789,62 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$20:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$20:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>488.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>397.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1877919648"/>
-        <c:axId val="-1877916032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1877919648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1877916032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1877916032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1877919648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node A Twice Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSMA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+          <c:dLbls>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$28:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$28:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>374.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>359.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VCS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$28:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$28:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>382.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>362.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1953047216"/>
-        <c:axId val="-1876712272"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1953047216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1876712272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1876712272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1953047216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node B Twice Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSMA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$28:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$28:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>374.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>359.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VCS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$28:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$28:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>382.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>362.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1878805376"/>
-        <c:axId val="-1878804016"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1878805376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1878804016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1878804016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1878805376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fairness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Index</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSMA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$35:$D$38</c:f>
@@ -5158,134 +7852,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$35:$E$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.998984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.005316</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.006179</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.680304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VCS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$35:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,7 +7873,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.998962</c:v>
+                  <c:v>0.99896200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.005339</c:v>
@@ -5306,16 +7882,22 @@
                   <c:v>1.000766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74613</c:v>
+                  <c:v>0.74612999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3BC-41D2-A2B3-0E4E616A68B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5345,6 +7927,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5403,6 +8039,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Avverage Fairness Index</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr cap="none" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>(# of Successful Pkts A / # of Successful Pkts C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5448,6 +8147,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10929,11 +13658,17 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>146166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10963,7 +13698,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10995,7 +13736,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11027,7 +13774,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11059,7 +13812,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11091,7 +13850,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11123,7 +13888,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11155,7 +13926,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11187,7 +13964,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11219,7 +14002,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11501,296 +14290,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="O61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA88" sqref="AA88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="5"/>
+    <col min="3" max="3" width="10.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="5"/>
+    <col min="6" max="6" width="13.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="5"/>
+    <col min="8" max="8" width="15.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="5"/>
+    <col min="11" max="11" width="14.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="5"/>
+    <col min="13" max="13" width="14" style="5" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" style="5"/>
+    <col min="16" max="16" width="13.33203125" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>2</v>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>2</v>
+      <c r="M3" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+    <row r="4" spans="1:13">
+      <c r="A4" s="14">
         <v>50</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="15">
         <v>0.59640000000000004</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="15">
         <v>0.59640000000000004</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>50</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="15">
         <v>0.5988</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="17">
         <v>0.5988</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="28">
+      <c r="H4" s="14">
         <v>50</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="14">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16">
         <v>50</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+    <row r="5" spans="1:13">
+      <c r="A5" s="14">
         <v>100</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="15">
         <v>1.2023999999999999</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <v>1.2023999999999999</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>100</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <v>1.1963999999999999</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="17">
         <v>1.1963999999999999</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="28">
+      <c r="H5" s="14">
         <v>100</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="14">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16">
         <v>100</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+    <row r="6" spans="1:13">
+      <c r="A6" s="14">
         <v>200</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="15">
         <v>2.3904000000000001</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <v>2.3963999999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="16">
         <v>200</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="15">
         <v>2.3759999999999999</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="17">
         <v>2.3952</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="28">
+      <c r="H6" s="14">
         <v>200</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="14">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16">
         <v>200</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+    <row r="7" spans="1:13">
+      <c r="A7" s="14">
         <v>300</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="15">
         <v>2.0819999999999999</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="15">
         <v>2.2440000000000002</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>300</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="15">
         <v>3.0840000000000001</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="17">
         <v>3.0312000000000001</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="28">
+      <c r="H7" s="14">
         <v>300</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="14">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16">
         <v>300</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="18"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.5">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -11798,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>13</v>
@@ -11806,10 +14603,10 @@
       <c r="E11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
@@ -11817,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>13</v>
@@ -11825,221 +14622,221 @@
       <c r="L11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>2</v>
+      <c r="M11" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+    <row r="12" spans="1:13" ht="16.5">
+      <c r="A12" s="14">
         <v>100</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="15">
         <v>1.1988000000000001</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <v>1.1988000000000001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.5988</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.5988</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="14">
+        <v>100</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16">
         <v>50</v>
       </c>
-      <c r="E12" s="23">
-        <v>0.5988</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0.5988</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="28">
+      <c r="L12" s="15"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="14">
+        <v>200</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2.3927999999999998</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2.3927999999999998</v>
+      </c>
+      <c r="D13" s="16">
         <v>100</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="14">
-        <v>50</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
+      <c r="E13" s="15">
+        <v>1.1976</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1.1976</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14">
+        <v>200</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16">
+        <v>100</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+    <row r="14" spans="1:13">
+      <c r="A14" s="14">
+        <v>400</v>
+      </c>
+      <c r="B14" s="15">
+        <v>3.3336000000000001</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="D14" s="16">
         <v>200</v>
       </c>
-      <c r="B13" s="23">
-        <v>2.3927999999999998</v>
-      </c>
-      <c r="C13" s="23">
-        <v>2.3927999999999998</v>
-      </c>
-      <c r="D13" s="14">
-        <v>100</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1.1976</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1.1976</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="28">
+      <c r="E14" s="15">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1.8828</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="14">
+        <v>400</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16">
         <v>200</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="14">
-        <v>100</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
-        <v>400</v>
-      </c>
-      <c r="B14" s="23">
-        <v>3.3336000000000001</v>
-      </c>
-      <c r="C14" s="23">
-        <v>3.4079999999999999</v>
-      </c>
-      <c r="D14" s="14">
-        <v>200</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1.8828</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="28">
-        <v>400</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="14">
-        <v>200</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="20">
+        <v>600</v>
+      </c>
+      <c r="B15" s="21">
+        <v>3.0948000000000002</v>
+      </c>
+      <c r="C15" s="21">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="D15" s="22">
+        <v>300</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2.1072000000000002</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2.2044000000000001</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="20">
+        <v>600</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22">
+        <v>300</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="23"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>600</v>
-      </c>
-      <c r="B15" s="25">
-        <v>3.0948000000000002</v>
-      </c>
-      <c r="C15" s="25">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="D15" s="30">
-        <v>300</v>
-      </c>
-      <c r="E15" s="25">
-        <v>2.1072000000000002</v>
-      </c>
-      <c r="F15" s="26">
-        <v>2.2044000000000001</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="29">
-        <v>600</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="30">
-        <v>300</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="9" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17.5">
       <c r="A19" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>2</v>
+      <c r="F19" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>2</v>
+      <c r="M19" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+    <row r="20" spans="1:13">
+      <c r="A20" s="14">
         <v>50</v>
       </c>
       <c r="B20" s="10">
@@ -12048,29 +14845,29 @@
       <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="16">
         <v>50</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <v>3</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="19">
         <v>4</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="28">
+      <c r="H20" s="14">
         <v>50</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="14">
+      <c r="K20" s="16">
         <v>50</v>
       </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+    <row r="21" spans="1:13">
+      <c r="A21" s="14">
         <v>100</v>
       </c>
       <c r="B21" s="10">
@@ -12079,29 +14876,29 @@
       <c r="C21" s="10">
         <v>40</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="16">
         <v>100</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="25">
         <v>37</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="19">
         <v>40</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="28">
+      <c r="H21" s="14">
         <v>100</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="14">
+      <c r="K21" s="16">
         <v>100</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="19"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+    <row r="22" spans="1:13">
+      <c r="A22" s="14">
         <v>200</v>
       </c>
       <c r="B22" s="10">
@@ -12110,120 +14907,120 @@
       <c r="C22" s="10">
         <v>488</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="16">
         <v>200</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="25">
         <v>559</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="19">
         <v>488</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="28">
+      <c r="H22" s="14">
         <v>200</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="14">
+      <c r="K22" s="16">
         <v>200</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="17"/>
+      <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+    <row r="23" spans="1:13">
+      <c r="A23" s="14">
         <v>300</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <v>378</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>397</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="16">
         <v>300</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>378</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="19">
         <v>397</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="28">
+      <c r="H23" s="14">
         <v>300</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="14">
+      <c r="K23" s="16">
         <v>300</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="18"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="17"/>
+      <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="17"/>
+      <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17.5">
       <c r="A27" s="12" t="s">
         <v>12</v>
       </c>
@@ -12231,7 +15028,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>13</v>
@@ -12239,10 +15036,10 @@
       <c r="E27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="14"/>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="16"/>
       <c r="H27" s="12" t="s">
         <v>12</v>
       </c>
@@ -12258,12 +15055,12 @@
       <c r="L27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>2</v>
+      <c r="M27" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+    <row r="28" spans="1:13">
+      <c r="A28" s="14">
         <v>100</v>
       </c>
       <c r="B28" s="10">
@@ -12272,29 +15069,29 @@
       <c r="C28" s="10">
         <v>14</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="16">
         <v>50</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="25">
         <v>13</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="19">
         <v>14</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="28">
+      <c r="H28" s="14">
         <v>100</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="14">
+      <c r="K28" s="16">
         <v>50</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+    <row r="29" spans="1:13">
+      <c r="A29" s="14">
         <v>200</v>
       </c>
       <c r="B29" s="10">
@@ -12303,29 +15100,29 @@
       <c r="C29" s="10">
         <v>147</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="16">
         <v>100</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="25">
         <v>147</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="19">
         <v>147</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="28">
+      <c r="H29" s="14">
         <v>200</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="14">
+      <c r="K29" s="16">
         <v>100</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="17"/>
+      <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+    <row r="30" spans="1:13">
+      <c r="A30" s="14">
         <v>400</v>
       </c>
       <c r="B30" s="10">
@@ -12334,276 +15131,282 @@
       <c r="C30" s="10">
         <v>382</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="16">
         <v>200</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="25">
         <v>374</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="19">
         <v>382</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="28">
+      <c r="H30" s="14">
         <v>400</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="14">
+      <c r="K30" s="16">
         <v>200</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="17"/>
+      <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+    <row r="31" spans="1:13">
+      <c r="A31" s="20">
         <v>600</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="24">
         <v>359</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="24">
         <v>362</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="22">
         <v>300</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="24">
         <v>359</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="26">
         <v>362</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="29">
+      <c r="G31" s="24"/>
+      <c r="H31" s="20">
         <v>600</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="30">
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="22">
         <v>300</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D32" s="2"/>
+    <row r="32" spans="1:13">
+      <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="20" t="s">
+    <row r="33" spans="4:10">
+      <c r="D33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="4:10" ht="17.5">
+      <c r="D34" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="4:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="D34" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>2</v>
+      <c r="F34" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>2</v>
+      <c r="J34" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D35" s="28">
+    <row r="35" spans="4:10">
+      <c r="D35" s="14">
         <v>50</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="15">
         <v>0.99898399999999998</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="17">
         <v>0.99896200000000002</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="28">
+      <c r="H35" s="14">
         <v>50</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D36" s="28">
+    <row r="36" spans="4:10">
+      <c r="D36" s="14">
         <v>100</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="15">
         <v>1.0053160000000001</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="17">
         <v>1.005339</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="28">
+      <c r="H36" s="14">
         <v>100</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D37" s="28">
+    <row r="37" spans="4:10">
+      <c r="D37" s="14">
         <v>200</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="15">
         <v>1.0061789999999999</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="17">
         <v>1.000766</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="28">
+      <c r="H37" s="14">
         <v>200</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D38" s="28">
+    <row r="38" spans="4:10">
+      <c r="D38" s="14">
         <v>300</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="15">
         <v>0.68030400000000002</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="17">
         <v>0.74612999999999996</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="28">
+      <c r="H38" s="14">
         <v>300</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D39" s="16"/>
+    <row r="39" spans="4:10">
+      <c r="D39" s="18"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="7" t="s">
-        <v>14</v>
+    <row r="40" spans="4:10">
+      <c r="D40" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="4:10" ht="17.5">
+      <c r="D41" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="4:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="D41" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>2</v>
+      <c r="F41" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>2</v>
+      <c r="J41" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D42" s="28">
+    <row r="42" spans="4:10">
+      <c r="D42" s="14">
         <v>50</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="15">
         <v>2.0029859999999999</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="17">
         <v>2.0030190000000001</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="28">
+      <c r="H42" s="14">
         <v>50</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D43" s="28">
+    <row r="43" spans="4:10">
+      <c r="D43" s="14">
         <v>100</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="15">
         <v>1.999066</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="17">
         <v>1.9990520000000001</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="28">
+      <c r="H43" s="14">
         <v>100</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D44" s="28">
+    <row r="44" spans="4:10">
+      <c r="D44" s="14">
         <v>200</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="15">
         <v>1.9381980000000001</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="17">
         <v>1.929689</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="28">
+      <c r="H44" s="14">
         <v>200</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D45" s="29">
+    <row r="45" spans="4:10">
+      <c r="D45" s="20">
         <v>300</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="21">
         <v>1.5425770000000001</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="23">
         <v>1.456842</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="29">
+      <c r="G45" s="24"/>
+      <c r="H45" s="20">
         <v>300</v>
       </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="D40:F40"/>
@@ -12618,12 +15421,6 @@
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ECE 478 - Project 1 Data.xlsx
+++ b/ECE 478 - Project 1 Data.xlsx
@@ -436,12 +436,26 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
+                  <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="95000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:effectLst>
                   <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -457,8 +471,35 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node A</a:t>
+              <a:t>Average Throughput of Node A While </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -474,12 +515,26 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
+                <a:sysClr val="window" lastClr="FFFFFF">
                   <a:lumMod val="95000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -1246,7 +1301,31 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Index Twice Rate</a:t>
+              <a:t> Index</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = 2λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2023,9 +2102,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node C</a:t>
+              <a:t>Throughput of Node C </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2797,9 +2907,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node A Twice Rate</a:t>
+              <a:t>Throughput of Node A </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = 2λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3634,9 +3775,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node C Twice Rate</a:t>
+              <a:t>Throughput of Node C </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = 2λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4406,9 +4578,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node A</a:t>
+              <a:t>Collisions of Node A </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5177,9 +5380,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node C</a:t>
+              <a:t>Collisions of Node C </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5947,9 +6181,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node A Twice Rate</a:t>
+              <a:t>Collisions of Node A </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = 2λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6715,9 +6980,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node B Twice Rate</a:t>
+              <a:t>Collisions of Node B </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = 2λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7489,6 +7785,30 @@
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> Index</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> While λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -14293,8 +14613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA88" sqref="AA88"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>

--- a/ECE 478 - Project 1 Data.xlsx
+++ b/ECE 478 - Project 1 Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpari\Documents\ECE478\DCF-802.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndrewCamps/Desktop/DCF-802.11/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
   <si>
     <t>Node A</t>
-  </si>
-  <si>
-    <t>CSMA</t>
-  </si>
-  <si>
-    <t>VCS</t>
   </si>
   <si>
     <t>Node C</t>
@@ -166,17 +160,26 @@
     </r>
   </si>
   <si>
-    <t>CSMA (VCS)</t>
+    <t>Scenario A: VCS</t>
+  </si>
+  <si>
+    <t>Scenario A: CSMA</t>
+  </si>
+  <si>
+    <t>Scenario B: CSMA</t>
+  </si>
+  <si>
+    <t>Scenario B: VCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,22 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,8 +369,22 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,6 +397,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -417,7 +423,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -471,7 +477,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Throughput of Node A While </a:t>
+              <a:t>Average Throughput of Node A: </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800">
@@ -503,6 +509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -559,17 +566,17 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10512620975286618"/>
-          <c:y val="0.12768087855297158"/>
-          <c:w val="0.81088706161391921"/>
-          <c:h val="0.73958635035150999"/>
+          <c:x val="0.105126209752866"/>
+          <c:y val="0.127680878552972"/>
+          <c:w val="0.810887061613919"/>
+          <c:h val="0.73958635035151"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -577,17 +584,366 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario A: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -682,6 +1038,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -701,63 +1058,856 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>Sheet1!$H$4:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:f>Sheet1!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59640000000000004</c:v>
+                  <c:v>0.5976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2023999999999999</c:v>
+                  <c:v>1.1904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3904000000000001</c:v>
+                  <c:v>1.7796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0819999999999999</c:v>
+                  <c:v>1.806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A22E-4459-A43B-8B4B5FB3AF14}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1360599536"/>
+        <c:axId val="1325357552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1360599536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Transmission Rate (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1325357552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1325357552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Tthroughput (Mbps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360599536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fairness</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Index</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: 2λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario A: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.003464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.993781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.673099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.414503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$F$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -862,6 +2012,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -881,52 +2032,397 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>Sheet1!$D$42:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:f>Sheet1!$F$42:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59640000000000004</c:v>
+                  <c:v>2.003438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2023999999999999</c:v>
+                  <c:v>1.993821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3963999999999999</c:v>
+                  <c:v>1.847426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2440000000000002</c:v>
+                  <c:v>1.436281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A22E-4459-A43B-8B4B5FB3AF14}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$42:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$42:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.00513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.065057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.279903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.565648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$42:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$42:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.003488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.994013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.740239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.763107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -937,11 +2433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1993949360"/>
-        <c:axId val="-1952314992"/>
+        <c:axId val="1430706144"/>
+        <c:axId val="1430710176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1993949360"/>
+        <c:axId val="1430706144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,6 +2482,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1015,7 +2512,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1048,12 +2545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952314992"/>
+        <c:crossAx val="1430710176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1952314992"/>
+        <c:axId val="1430710176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,18 +2589,22 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Average </a:t>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Average Fairness Index</a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr cap="none"/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Tthroughput (Mbps)</a:t>
+                  <a:t>(# of Successful Pkts A / # of Successful Pkts C)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1133,7 +2634,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1166,7 +2667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1993949360"/>
+        <c:crossAx val="1430706144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1180,6 +2681,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,8 +2758,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1296,18 +2798,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Fairness</a:t>
+              <a:t>Throughput of Node C:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Index</a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> While λ</a:t>
+              <a:t>λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -1319,7 +2827,7 @@
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> = 2λ</a:t>
+              <a:t> = λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -1331,6 +2839,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1377,17 +2886,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$41</c:f>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1485,6 +2994,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1504,63 +3014,58 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:f>Sheet1!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0029859999999999</c:v>
+                  <c:v>0.5988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.999066</c:v>
+                  <c:v>1.194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9381980000000001</c:v>
+                  <c:v>2.3808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5425770000000001</c:v>
+                  <c:v>2.6424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5158-4F7D-B28B-25E0CB2CFBC5}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$41</c:f>
+              <c:f>Sheet1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1665,6 +3170,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1684,52 +3190,397 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:f>Sheet1!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0030190000000001</c:v>
+                  <c:v>0.5988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9990520000000001</c:v>
+                  <c:v>1.194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.929689</c:v>
+                  <c:v>2.3916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.456842</c:v>
+                  <c:v>2.832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5158-4F7D-B28B-25E0CB2CFBC5}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1740,11 +3591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1954037872"/>
-        <c:axId val="-1989192112"/>
+        <c:axId val="1431313568"/>
+        <c:axId val="1431317600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1954037872"/>
+        <c:axId val="1431313568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,6 +3640,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1851,12 +3703,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989192112"/>
+        <c:crossAx val="1431317600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1989192112"/>
+        <c:axId val="1431317600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +3716,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -1895,21 +3747,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Average Fairness Index</a:t>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average </a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr cap="none" baseline="0"/>
-                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>(# of Successful Pkts A / # of Successful Pkts C)</a:t>
+                  <a:t>Throughput (Mbps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1972,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1954037872"/>
+        <c:crossAx val="1431313568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1986,811 +3836,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node C </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>While λ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>A</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> = λ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>C</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSMA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.5988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1963999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0840000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2740-42E8-92A9-A5AA941AF133}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.5988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1963999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0312000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2740-42E8-92A9-A5AA941AF133}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2054611504"/>
-        <c:axId val="-1991344848"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2054611504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1991344848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1991344848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Average </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Throughput (Mbps)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2054611504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,7 +3914,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2914,13 +3960,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node A </a:t>
+              <a:t>Throughput of Node A:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>While λ</a:t>
+              <a:t> 2λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -2932,7 +3978,7 @@
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> = 2λ</a:t>
+              <a:t> = λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -2944,6 +3990,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2994,7 +4041,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3098,6 +4145,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3122,16 +4170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,26 +4191,21 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1988000000000001</c:v>
+                  <c:v>1.1988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3927999999999998</c:v>
+                  <c:v>2.3892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3336000000000001</c:v>
+                  <c:v>3.2076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0948000000000002</c:v>
+                  <c:v>3.018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9D6-4F44-852B-C3447A1EA128}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3173,7 +4216,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3302,11 +4345,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C9D6-4F44-852B-C3447A1EA128}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3347,6 +4385,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3371,16 +4410,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,26 +4431,371 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1988000000000001</c:v>
+                  <c:v>1.1988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3927999999999998</c:v>
+                  <c:v>2.3904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4079999999999999</c:v>
+                  <c:v>3.432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0960000000000001</c:v>
+                  <c:v>3.1212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9D6-4F44-852B-C3447A1EA128}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -3422,11 +4806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1951363312"/>
-        <c:axId val="-1991200992"/>
+        <c:axId val="1430452656"/>
+        <c:axId val="1430455776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1951363312"/>
+        <c:axId val="1430452656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,6 +4855,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3533,12 +4918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1991200992"/>
+        <c:crossAx val="1430455776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1991200992"/>
+        <c:axId val="1430455776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,6 +4968,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3645,7 +5031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1951363312"/>
+        <c:crossAx val="1430452656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3659,6 +5045,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3736,7 +5123,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3782,13 +5169,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput of Node C </a:t>
+              <a:t>Throughput of Node C:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>While λ</a:t>
+              <a:t>2λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -3800,7 +5191,7 @@
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> = 2λ</a:t>
+              <a:t> = λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -3812,6 +5203,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3862,7 +5254,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3966,6 +5358,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3984,24 +5377,25 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$D$12:$D$15</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Rates C: λ = λC</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4010,26 +5404,21 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>0.5976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1976</c:v>
+                  <c:v>1.1988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8360000000000001</c:v>
+                  <c:v>1.9164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1072000000000002</c:v>
+                  <c:v>2.1336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99AC-47A1-86FE-81CBD084EADA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4040,7 +5429,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4145,6 +5534,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4163,24 +5553,25 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$D$12:$D$15</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Rates C: λ = λC</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4189,26 +5580,371 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>0.5976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1976</c:v>
+                  <c:v>1.1988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8828</c:v>
+                  <c:v>1.8576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2044000000000001</c:v>
+                  <c:v>2.1732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99AC-47A1-86FE-81CBD084EADA}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$12:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -4219,11 +5955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1877820736"/>
-        <c:axId val="-1954069952"/>
+        <c:axId val="1430492032"/>
+        <c:axId val="1430496064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1877820736"/>
+        <c:axId val="1430492032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,6 +6004,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4330,12 +6067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1954069952"/>
+        <c:crossAx val="1430496064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1954069952"/>
+        <c:axId val="1430496064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4386,6 +6123,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4448,7 +6186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877820736"/>
+        <c:crossAx val="1430492032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4462,6 +6200,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4539,7 +6278,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4585,13 +6324,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node A </a:t>
+              <a:t>Collisions of Node A:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>While λ</a:t>
+              <a:t> λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -4615,6 +6354,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4665,7 +6405,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4769,6 +6509,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4793,16 +6534,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,26 +6555,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>559</c:v>
+                  <c:v>571.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>378</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBFB-4C31-A8CA-5623389BA1E8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4844,7 +6580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4949,6 +6685,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4973,16 +6710,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,26 +6731,371 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>488</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397</c:v>
+                  <c:v>421.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBFB-4C31-A8CA-5623389BA1E8}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>654.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1615.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1549.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1534.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1447.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -5024,11 +7106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1877533216"/>
-        <c:axId val="-1877531856"/>
+        <c:axId val="1430529280"/>
+        <c:axId val="1430533312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1877533216"/>
+        <c:axId val="1430529280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,6 +7155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5135,12 +7218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877531856"/>
+        <c:crossAx val="1430533312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1877531856"/>
+        <c:axId val="1430533312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,6 +7271,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5250,7 +7334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877533216"/>
+        <c:crossAx val="1430529280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5264,6 +7348,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5341,7 +7426,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5387,13 +7472,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node C </a:t>
+              <a:t>Collisions of Node C:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>While λ</a:t>
+              <a:t> λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -5417,6 +7502,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5467,7 +7553,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5571,6 +7657,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5595,16 +7682,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,26 +7703,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>559</c:v>
+                  <c:v>571.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>378</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F97-4DCE-8A66-F55A315F6821}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5646,7 +7728,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5751,6 +7833,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5775,16 +7858,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5796,26 +7879,371 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>488</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397</c:v>
+                  <c:v>421.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F97-4DCE-8A66-F55A315F6821}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$20:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$20:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>654.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1615.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1549.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1534.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$20:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$20:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1447.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -5826,11 +8254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1877919648"/>
-        <c:axId val="-1877916032"/>
+        <c:axId val="1430567744"/>
+        <c:axId val="1430571776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1877919648"/>
+        <c:axId val="1430567744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,6 +8303,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5937,12 +8366,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877916032"/>
+        <c:crossAx val="1430571776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1877916032"/>
+        <c:axId val="1430571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5989,6 +8418,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6051,7 +8481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877919648"/>
+        <c:crossAx val="1430567744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6065,6 +8495,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6142,7 +8573,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6188,13 +8619,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node A </a:t>
+              <a:t>Collisions of Node A:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>While λ</a:t>
+              <a:t>2λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -6206,7 +8641,7 @@
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> = 2λ</a:t>
+              <a:t> = λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -6218,6 +8653,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6268,7 +8704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6372,6 +8808,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6396,16 +8833,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,26 +8854,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>149.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>374</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D31-4D8B-AB39-DF9CC095A65A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6447,7 +8879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6552,6 +8984,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6576,16 +9009,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6597,26 +9030,371 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>382</c:v>
+                  <c:v>426.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362</c:v>
+                  <c:v>414.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D31-4D8B-AB39-DF9CC095A65A}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$28:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1145.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1584.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1537.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1538.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$28:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -6627,11 +9405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1953047216"/>
-        <c:axId val="-1876712272"/>
+        <c:axId val="1430598400"/>
+        <c:axId val="1430602432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1953047216"/>
+        <c:axId val="1430598400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6676,6 +9454,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6738,12 +9517,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1876712272"/>
+        <c:crossAx val="1430602432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1876712272"/>
+        <c:axId val="1430602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6788,6 +9567,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6850,7 +9630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1953047216"/>
+        <c:crossAx val="1430598400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6864,6 +9644,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6941,7 +9722,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6987,13 +9768,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Collisions of Node B </a:t>
+              <a:t>Collisions of Node C:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>While λ</a:t>
+              <a:t> 2λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -7005,7 +9786,7 @@
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> = 2λ</a:t>
+              <a:t> = λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -7017,6 +9798,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7067,7 +9849,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7171,6 +9953,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7195,16 +9978,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7216,26 +9999,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>149.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>374</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3A8-4972-BCC0-30343826FB9F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7246,7 +10024,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7351,6 +10129,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7375,16 +10154,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7396,26 +10175,371 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>382</c:v>
+                  <c:v>426.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362</c:v>
+                  <c:v>414.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3A8-4972-BCC0-30343826FB9F}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$28:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1145.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1584.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1537.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1538.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$28:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -7426,11 +10550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1878805376"/>
-        <c:axId val="-1878804016"/>
+        <c:axId val="1430633024"/>
+        <c:axId val="1430637056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1878805376"/>
+        <c:axId val="1430633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,6 +10599,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7537,12 +10662,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1878804016"/>
+        <c:crossAx val="1430637056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1878804016"/>
+        <c:axId val="1430637056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7587,6 +10712,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7649,7 +10775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1878805376"/>
+        <c:crossAx val="1430633024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7663,6 +10789,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7740,7 +10867,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7790,7 +10917,7 @@
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> While λ</a:t>
+              <a:t>: λ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
@@ -7814,6 +10941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7864,7 +10992,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA</c:v>
+                  <c:v>Scenario A: CSMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7968,6 +11096,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7992,16 +11121,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8013,26 +11142,21 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99898399999999998</c:v>
+                  <c:v>0.998776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0053160000000001</c:v>
+                  <c:v>1.002497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0061789999999999</c:v>
+                  <c:v>0.996546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68030400000000002</c:v>
+                  <c:v>0.942564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3BC-41D2-A2B3-0E4E616A68B7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8043,7 +11167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSMA (VCS)</c:v>
+                  <c:v>Scenario A: VCS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8148,6 +11272,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8172,16 +11297,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8193,26 +11318,371 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99896200000000002</c:v>
+                  <c:v>0.99877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.005339</c:v>
+                  <c:v>1.002488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.000766</c:v>
+                  <c:v>0.996678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74612999999999996</c:v>
+                  <c:v>0.865028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F3BC-41D2-A2B3-0E4E616A68B7}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: CSMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$35:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$35:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.998717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.975299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.960735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario B: VCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$35:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$35:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.998769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.002492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.991319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -8223,11 +11693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1876054432"/>
-        <c:axId val="-1876052384"/>
+        <c:axId val="1430671584"/>
+        <c:axId val="1430675616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1876054432"/>
+        <c:axId val="1430671584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8272,6 +11742,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8334,12 +11805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1876052384"/>
+        <c:crossAx val="1430675616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1876052384"/>
+        <c:axId val="1430675616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8384,7 +11855,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr cap="none" baseline="0"/>
+                  <a:defRPr cap="none"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
@@ -8393,6 +11864,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8455,7 +11927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1876054432"/>
+        <c:crossAx val="1430671584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8469,6 +11941,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13985,7 +17458,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14021,7 +17494,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14059,7 +17532,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14097,7 +17570,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14135,7 +17608,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14173,7 +17646,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14211,7 +17684,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14249,7 +17722,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14287,7 +17760,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14325,7 +17798,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14610,25 +18083,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="5"/>
-    <col min="3" max="3" width="10.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="5"/>
     <col min="6" max="6" width="13.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="5"/>
     <col min="8" max="8" width="15.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="5"/>
+    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" style="5"/>
     <col min="13" max="13" width="14" style="5" customWidth="1"/>
@@ -14637,7 +18110,7 @@
     <col min="17" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -14645,7 +18118,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
@@ -14656,421 +18129,485 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.5988</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.5988</v>
+      </c>
+      <c r="D4" s="11">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.5988</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.5988</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9">
+        <v>50</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.5988</v>
+      </c>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.5988</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>100</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.1963999999999999</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.1963999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>100</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.194</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1.194</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9">
+        <v>100</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.1903999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.1963999999999999</v>
+      </c>
+      <c r="K5" s="11">
+        <v>100</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>200</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.3723999999999998</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.3843999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.3807999999999998</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2.3915999999999999</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9">
+        <v>200</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.7796000000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2.3795999999999999</v>
+      </c>
+      <c r="K6" s="11">
+        <v>200</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="M6" s="12">
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>300</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.4504000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>300</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.6423999999999999</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9">
+        <v>300</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.806</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2.6316000000000002</v>
+      </c>
+      <c r="K7" s="11">
+        <v>300</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1.8804000000000001</v>
+      </c>
+      <c r="M7" s="12">
+        <v>2.6556000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="J11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>16</v>
+      <c r="M11" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="14">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="D12" s="30">
         <v>50</v>
       </c>
-      <c r="B4" s="15">
+      <c r="E12" s="10">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9">
+        <v>100</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.1963999999999999</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="K12" s="11">
+        <v>50</v>
+      </c>
+      <c r="L12" s="10">
         <v>0.59640000000000004</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.59640000000000004</v>
-      </c>
-      <c r="D4" s="16">
-        <v>50</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.5988</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.5988</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14">
-        <v>50</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16">
-        <v>50</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="17"/>
+      <c r="M12" s="12">
+        <v>0.59760000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="14">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>200</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.3892000000000002</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.3904000000000001</v>
+      </c>
+      <c r="D13" s="11">
         <v>100</v>
       </c>
-      <c r="B5" s="15">
-        <v>1.2023999999999999</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1.2023999999999999</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="E13" s="10">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9">
+        <v>200</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2.3028</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2.3904000000000001</v>
+      </c>
+      <c r="K13" s="11">
         <v>100</v>
       </c>
-      <c r="E5" s="15">
-        <v>1.1963999999999999</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1.1963999999999999</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="14">
-        <v>100</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16">
-        <v>100</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="17"/>
+      <c r="L13" s="10">
+        <v>1.1148</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1.1988000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>400</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3.2075999999999998</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="D14" s="11">
         <v>200</v>
       </c>
-      <c r="B6" s="15">
-        <v>2.3904000000000001</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2.3963999999999999</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="E14" s="10">
+        <v>1.9164000000000001</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.8575999999999999</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9">
+        <v>400</v>
+      </c>
+      <c r="I14" s="10">
+        <v>2.5571999999999999</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3.8795999999999999</v>
+      </c>
+      <c r="K14" s="11">
         <v>200</v>
       </c>
-      <c r="E6" s="15">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="F6" s="17">
-        <v>2.3952</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14">
-        <v>200</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16">
-        <v>200</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
+      <c r="L14" s="10">
+        <v>1.1208</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1.4148000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="14">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>600</v>
+      </c>
+      <c r="B15" s="16">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3.1212</v>
+      </c>
+      <c r="D15" s="17">
         <v>300</v>
       </c>
-      <c r="B7" s="15">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="C7" s="15">
-        <v>2.2440000000000002</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="E15" s="16">
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2.1732</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="15">
+        <v>600</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2.2464</v>
+      </c>
+      <c r="J15" s="16">
+        <v>4.2023999999999999</v>
+      </c>
+      <c r="K15" s="17">
         <v>300</v>
       </c>
-      <c r="E7" s="15">
-        <v>3.0840000000000001</v>
-      </c>
-      <c r="F7" s="17">
-        <v>3.0312000000000001</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="14">
-        <v>300</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16">
-        <v>300</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="17"/>
+      <c r="L15" s="16">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1.1160000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="18"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.5">
-      <c r="A11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5">
-      <c r="A12" s="14">
-        <v>100</v>
-      </c>
-      <c r="B12" s="15">
-        <v>1.1988000000000001</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1.1988000000000001</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.5988</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.5988</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14">
-        <v>100</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16">
-        <v>50</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="14">
-        <v>200</v>
-      </c>
-      <c r="B13" s="15">
-        <v>2.3927999999999998</v>
-      </c>
-      <c r="C13" s="15">
-        <v>2.3927999999999998</v>
-      </c>
-      <c r="D13" s="16">
-        <v>100</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1.1976</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1.1976</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="14">
-        <v>200</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16">
-        <v>100</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="14">
-        <v>400</v>
-      </c>
-      <c r="B14" s="15">
-        <v>3.3336000000000001</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3.4079999999999999</v>
-      </c>
-      <c r="D14" s="16">
-        <v>200</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1.8828</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="14">
-        <v>400</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16">
-        <v>200</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="20">
-        <v>600</v>
-      </c>
-      <c r="B15" s="21">
-        <v>3.0948000000000002</v>
-      </c>
-      <c r="C15" s="21">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="D15" s="22">
-        <v>300</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2.1072000000000002</v>
-      </c>
-      <c r="F15" s="23">
-        <v>2.2044000000000001</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20">
-        <v>600</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22">
-        <v>300</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -15078,7 +18615,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -15089,644 +18626,734 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
+      <c r="E19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="6" t="s">
+      <c r="L19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="9">
+        <v>50</v>
+      </c>
+      <c r="I20" s="31">
+        <v>654</v>
+      </c>
+      <c r="J20" s="31">
+        <v>41</v>
+      </c>
+      <c r="K20" s="11">
+        <v>50</v>
+      </c>
+      <c r="L20" s="31">
+        <v>654</v>
+      </c>
+      <c r="M20" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>100</v>
+      </c>
+      <c r="B21" s="6">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11">
+        <v>100</v>
+      </c>
+      <c r="E21" s="6">
+        <v>39</v>
+      </c>
+      <c r="F21" s="6">
+        <v>41</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="9">
+        <v>100</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1615</v>
+      </c>
+      <c r="J21" s="31">
+        <v>298</v>
+      </c>
+      <c r="K21" s="11">
+        <v>100</v>
+      </c>
+      <c r="L21" s="31">
+        <v>1615</v>
+      </c>
+      <c r="M21" s="31">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>200</v>
+      </c>
+      <c r="B22" s="6">
+        <v>571</v>
+      </c>
+      <c r="C22" s="6">
+        <v>495</v>
+      </c>
+      <c r="D22" s="11">
+        <v>200</v>
+      </c>
+      <c r="E22" s="6">
+        <v>571</v>
+      </c>
+      <c r="F22" s="6">
+        <v>495</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="9">
+        <v>200</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1549</v>
+      </c>
+      <c r="J22" s="31">
+        <v>1447</v>
+      </c>
+      <c r="K22" s="11">
+        <v>200</v>
+      </c>
+      <c r="L22" s="31">
+        <v>1549</v>
+      </c>
+      <c r="M22" s="31">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>300</v>
+      </c>
+      <c r="B23" s="31">
+        <v>405</v>
+      </c>
+      <c r="C23" s="31">
+        <v>421</v>
+      </c>
+      <c r="D23" s="11">
+        <v>300</v>
+      </c>
+      <c r="E23" s="31">
+        <v>405</v>
+      </c>
+      <c r="F23" s="31">
+        <v>421</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="9">
+        <v>300</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1534</v>
+      </c>
+      <c r="J23" s="31">
+        <v>177</v>
+      </c>
+      <c r="K23" s="11">
+        <v>300</v>
+      </c>
+      <c r="L23" s="31">
+        <v>1534</v>
+      </c>
+      <c r="M23" s="31">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>100</v>
+      </c>
+      <c r="B28" s="6">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11">
+        <v>50</v>
+      </c>
+      <c r="E28" s="6">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="9">
+        <v>100</v>
+      </c>
+      <c r="I28" s="31">
+        <v>1145</v>
+      </c>
+      <c r="J28" s="14">
+        <v>115</v>
+      </c>
+      <c r="K28" s="11">
+        <v>50</v>
+      </c>
+      <c r="L28" s="31">
+        <v>1145</v>
+      </c>
+      <c r="M28" s="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>200</v>
+      </c>
+      <c r="B29" s="6">
+        <v>149</v>
+      </c>
+      <c r="C29" s="6">
+        <v>148</v>
+      </c>
+      <c r="D29" s="11">
+        <v>100</v>
+      </c>
+      <c r="E29" s="6">
+        <v>149</v>
+      </c>
+      <c r="F29" s="6">
+        <v>148</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="9">
+        <v>200</v>
+      </c>
+      <c r="I29" s="31">
+        <v>1584</v>
+      </c>
+      <c r="J29" s="14">
+        <v>882</v>
+      </c>
+      <c r="K29" s="11">
+        <v>100</v>
+      </c>
+      <c r="L29" s="31">
+        <v>1584</v>
+      </c>
+      <c r="M29" s="14">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>400</v>
+      </c>
+      <c r="B30" s="6">
+        <v>418</v>
+      </c>
+      <c r="C30" s="6">
+        <v>426</v>
+      </c>
+      <c r="D30" s="11">
+        <v>200</v>
+      </c>
+      <c r="E30" s="6">
+        <v>418</v>
+      </c>
+      <c r="F30" s="6">
+        <v>426</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="9">
+        <v>400</v>
+      </c>
+      <c r="I30" s="31">
+        <v>1537</v>
+      </c>
+      <c r="J30" s="14">
+        <v>159</v>
+      </c>
+      <c r="K30" s="11">
+        <v>200</v>
+      </c>
+      <c r="L30" s="31">
+        <v>1537</v>
+      </c>
+      <c r="M30" s="14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>600</v>
+      </c>
+      <c r="B31" s="19">
+        <v>400</v>
+      </c>
+      <c r="C31" s="19">
+        <v>414</v>
+      </c>
+      <c r="D31" s="17">
+        <v>300</v>
+      </c>
+      <c r="E31" s="19">
+        <v>400</v>
+      </c>
+      <c r="F31" s="19">
+        <v>414</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="15">
+        <v>600</v>
+      </c>
+      <c r="I31" s="19">
+        <v>1538</v>
+      </c>
+      <c r="J31" s="20">
+        <v>106</v>
+      </c>
+      <c r="K31" s="17">
+        <v>300</v>
+      </c>
+      <c r="L31" s="19">
+        <v>1538</v>
+      </c>
+      <c r="M31" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="4:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="D34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="9">
+        <v>50</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.998776</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.99877000000000005</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="9">
+        <v>50</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.99871699999999997</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.99876900000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="9">
+        <v>100</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.002497</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1.002488</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="9">
+        <v>100</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1.00248</v>
+      </c>
+      <c r="J36" s="12">
+        <v>1.0024919999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="9">
+        <v>200</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.99654600000000004</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.99667799999999995</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="9">
+        <v>200</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.97529900000000003</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.99654100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D38" s="9">
+        <v>300</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.94256399999999996</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.86502800000000002</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="9">
+        <v>300</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.96073500000000001</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.99131899999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D39" s="13"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="9"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="25"/>
     </row>
-    <row r="19" spans="1:13" ht="17.5">
-      <c r="A19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
+    <row r="41" spans="4:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>16</v>
+      <c r="J41" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="14">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D42" s="9">
         <v>50</v>
       </c>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>4</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="E42" s="10">
+        <v>2.0034640000000001</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2.0034380000000001</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="9">
         <v>50</v>
       </c>
-      <c r="E20" s="25">
-        <v>3</v>
-      </c>
-      <c r="F20" s="19">
-        <v>4</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="14">
-        <v>50</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="16">
-        <v>50</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="19"/>
+      <c r="I42" s="10">
+        <v>2.0051299999999999</v>
+      </c>
+      <c r="J42" s="12">
+        <v>2.0034879999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="14">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D43" s="9">
         <v>100</v>
       </c>
-      <c r="B21" s="10">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10">
-        <v>40</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="E43" s="10">
+        <v>1.993781</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1.9938210000000001</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="9">
         <v>100</v>
       </c>
-      <c r="E21" s="25">
-        <v>37</v>
-      </c>
-      <c r="F21" s="19">
-        <v>40</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="14">
-        <v>100</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="16">
-        <v>100</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="19"/>
+      <c r="I43" s="10">
+        <v>2.0650569999999999</v>
+      </c>
+      <c r="J43" s="12">
+        <v>1.994013</v>
+      </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="14">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D44" s="9">
         <v>200</v>
       </c>
-      <c r="B22" s="10">
-        <v>559</v>
-      </c>
-      <c r="C22" s="10">
-        <v>488</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="E44" s="10">
+        <v>1.6730989999999999</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1.847426</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="9">
         <v>200</v>
       </c>
-      <c r="E22" s="25">
-        <v>559</v>
-      </c>
-      <c r="F22" s="19">
-        <v>488</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="14">
-        <v>200</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="16">
-        <v>200</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="19"/>
+      <c r="I44" s="10">
+        <v>2.279903</v>
+      </c>
+      <c r="J44" s="12">
+        <v>2.7402389999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="14">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D45" s="15">
         <v>300</v>
       </c>
-      <c r="B23" s="25">
-        <v>378</v>
-      </c>
-      <c r="C23" s="25">
-        <v>397</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="E45" s="16">
+        <v>1.4145030000000001</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1.4362809999999999</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="15">
         <v>300</v>
       </c>
-      <c r="E23" s="25">
-        <v>378</v>
-      </c>
-      <c r="F23" s="19">
-        <v>397</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="14">
-        <v>300</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="16">
-        <v>300</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="18"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.5">
-      <c r="A27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="14">
-        <v>100</v>
-      </c>
-      <c r="B28" s="10">
-        <v>13</v>
-      </c>
-      <c r="C28" s="10">
-        <v>14</v>
-      </c>
-      <c r="D28" s="16">
-        <v>50</v>
-      </c>
-      <c r="E28" s="25">
-        <v>13</v>
-      </c>
-      <c r="F28" s="19">
-        <v>14</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="14">
-        <v>100</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="16">
-        <v>50</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="14">
-        <v>200</v>
-      </c>
-      <c r="B29" s="10">
-        <v>147</v>
-      </c>
-      <c r="C29" s="10">
-        <v>147</v>
-      </c>
-      <c r="D29" s="16">
-        <v>100</v>
-      </c>
-      <c r="E29" s="25">
-        <v>147</v>
-      </c>
-      <c r="F29" s="19">
-        <v>147</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="14">
-        <v>200</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="16">
-        <v>100</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="14">
-        <v>400</v>
-      </c>
-      <c r="B30" s="10">
-        <v>374</v>
-      </c>
-      <c r="C30" s="10">
-        <v>382</v>
-      </c>
-      <c r="D30" s="16">
-        <v>200</v>
-      </c>
-      <c r="E30" s="25">
-        <v>374</v>
-      </c>
-      <c r="F30" s="19">
-        <v>382</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="14">
-        <v>400</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="16">
-        <v>200</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="20">
-        <v>600</v>
-      </c>
-      <c r="B31" s="24">
-        <v>359</v>
-      </c>
-      <c r="C31" s="24">
-        <v>362</v>
-      </c>
-      <c r="D31" s="22">
-        <v>300</v>
-      </c>
-      <c r="E31" s="24">
-        <v>359</v>
-      </c>
-      <c r="F31" s="26">
-        <v>362</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="20">
-        <v>600</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="22">
-        <v>300</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" spans="4:10" ht="17.5">
-      <c r="D34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="14">
-        <v>50</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0.99898399999999998</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0.99896200000000002</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="14">
-        <v>50</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" s="14">
-        <v>100</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1.0053160000000001</v>
-      </c>
-      <c r="F36" s="17">
-        <v>1.005339</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="14">
-        <v>100</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="D37" s="14">
-        <v>200</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1.0061789999999999</v>
-      </c>
-      <c r="F37" s="17">
-        <v>1.000766</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="14">
-        <v>200</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="D38" s="14">
-        <v>300</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0.68030400000000002</v>
-      </c>
-      <c r="F38" s="17">
-        <v>0.74612999999999996</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="14">
-        <v>300</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="D39" s="18"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="4:10">
-      <c r="D40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="4:10" ht="17.5">
-      <c r="D41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="4:10">
-      <c r="D42" s="14">
-        <v>50</v>
-      </c>
-      <c r="E42" s="15">
-        <v>2.0029859999999999</v>
-      </c>
-      <c r="F42" s="17">
-        <v>2.0030190000000001</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="14">
-        <v>50</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="4:10">
-      <c r="D43" s="14">
-        <v>100</v>
-      </c>
-      <c r="E43" s="15">
-        <v>1.999066</v>
-      </c>
-      <c r="F43" s="17">
-        <v>1.9990520000000001</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="14">
-        <v>100</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="4:10">
-      <c r="D44" s="14">
-        <v>200</v>
-      </c>
-      <c r="E44" s="15">
-        <v>1.9381980000000001</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1.929689</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="14">
-        <v>200</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="4:10">
-      <c r="D45" s="20">
-        <v>300</v>
-      </c>
-      <c r="E45" s="21">
-        <v>1.5425770000000001</v>
-      </c>
-      <c r="F45" s="23">
-        <v>1.456842</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="20">
-        <v>300</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="23"/>
+      <c r="I45" s="16">
+        <v>1.5656479999999999</v>
+      </c>
+      <c r="J45" s="18">
+        <v>3.7631070000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="D40:F40"/>
@@ -15741,6 +19368,12 @@
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ECE 478 - Project 1 Data.xlsx
+++ b/ECE 478 - Project 1 Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Throughput of Node A: </a:t>
+              <a:t>Throughput of Node A: </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800">
@@ -568,7 +568,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.105126209752866"/>
           <c:y val="0.127680878552972"/>
-          <c:w val="0.810887061613919"/>
+          <c:w val="0.659156446127022"/>
           <c:h val="0.73958635035151"/>
         </c:manualLayout>
       </c:layout>
@@ -769,6 +769,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -1174,6 +1175,71 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="rnd">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1328,7 +1394,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2268,6 +2348,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2477,7 +2558,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (frames/sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2590,16 +2671,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Average Fairness Index</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr cap="none"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>(# of Successful Pkts A / # of Successful Pkts C)</a:t>
+                  <a:t>Average Fairness Index (A/C)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2798,12 +2870,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Throughput of Node C:</a:t>
             </a:r>
@@ -3426,6 +3492,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -3583,9 +3650,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3635,7 +3701,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3953,12 +4029,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Throughput of Node A:</a:t>
             </a:r>
@@ -4226,6 +4296,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -4641,6 +4712,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -4850,7 +4922,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5162,12 +5244,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Throughput of Node C:</a:t>
             </a:r>
@@ -5790,6 +5866,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -5999,7 +6076,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6317,12 +6404,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Collisions of Node A:</a:t>
             </a:r>
@@ -6941,6 +7022,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -7150,7 +7232,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7265,7 +7357,7 @@
                   <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Average  Number of Collisions</a:t>
+                  <a:t>Average  Number of Collisions (frames)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" cap="none" baseline="0"/>
               </a:p>
@@ -7465,12 +7557,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Collisions of Node C:</a:t>
             </a:r>
@@ -8089,6 +8175,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -8298,7 +8385,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8413,7 +8510,7 @@
                   <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Average Number of Collisions</a:t>
+                  <a:t>Average Number of Collisions (frames)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8612,12 +8709,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Collisions of Node A:</a:t>
             </a:r>
@@ -9240,6 +9331,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -9449,7 +9541,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9562,7 +9664,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Average Number of COllisions</a:t>
+                  <a:t>Average Number of COllisions (frames)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9761,12 +9863,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Collisions of Node C:</a:t>
             </a:r>
@@ -10385,6 +10481,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -10594,7 +10691,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10707,7 +10818,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Average Number of COllisions</a:t>
+                  <a:t>Average Number of COllisions (frames)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11528,6 +11639,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -11737,7 +11849,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Transmission Rate (Mbps)</a:t>
+                  <a:t>Transmission Rate (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frames/sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11850,16 +11972,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>Avverage Fairness Index</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr cap="none"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" cap="none" baseline="0"/>
-                  <a:t>(# of Successful Pkts A / # of Successful Pkts C)</a:t>
+                  <a:t>Avverage Fairness Index (A/C)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -18086,8 +18199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ECE 478 - Project 1 Data.xlsx
+++ b/ECE 478 - Project 1 Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="8980" yWindow="0" windowWidth="19820" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,7 +389,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,10 +401,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>0.6012</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3796</c:v>
+                  <c:v>2.3928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6316</c:v>
+                  <c:v>2.6796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,11 +1350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1360599536"/>
-        <c:axId val="1325357552"/>
+        <c:axId val="1170794736"/>
+        <c:axId val="1071377488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1360599536"/>
+        <c:axId val="1170794736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,12 +1476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325357552"/>
+        <c:crossAx val="1071377488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1325357552"/>
+        <c:axId val="1071377488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360599536"/>
+        <c:crossAx val="1170794736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2489,16 +2489,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.003488</c:v>
+                  <c:v>1.997002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.994013</c:v>
+                  <c:v>1.994554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.740239</c:v>
+                  <c:v>2.905804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.763107</c:v>
+                  <c:v>3.687085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,11 +2514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430706144"/>
-        <c:axId val="1430710176"/>
+        <c:axId val="1198576336"/>
+        <c:axId val="1198580368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430706144"/>
+        <c:axId val="1198576336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,12 +2626,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430710176"/>
+        <c:crossAx val="1198580368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430710176"/>
+        <c:axId val="1198580368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,7 +2739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430706144"/>
+        <c:crossAx val="1198576336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3633,16 +3633,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5988</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.194</c:v>
+                  <c:v>1.1976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.388</c:v>
+                  <c:v>2.3868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6556</c:v>
+                  <c:v>2.6304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,11 +3657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1431313568"/>
-        <c:axId val="1431317600"/>
+        <c:axId val="1172458816"/>
+        <c:axId val="1172363680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1431313568"/>
+        <c:axId val="1172458816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,12 +3779,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431317600"/>
+        <c:crossAx val="1172363680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1431317600"/>
+        <c:axId val="1172363680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,7 +3898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431313568"/>
+        <c:crossAx val="1172458816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4856,13 +4856,13 @@
                   <c:v>1.1988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3904</c:v>
+                  <c:v>2.3916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8796</c:v>
+                  <c:v>3.9516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2024</c:v>
+                  <c:v>4.1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,11 +4878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430452656"/>
-        <c:axId val="1430455776"/>
+        <c:axId val="1173089120"/>
+        <c:axId val="1173093152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430452656"/>
+        <c:axId val="1173089120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5000,12 +5000,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430455776"/>
+        <c:crossAx val="1173093152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430455776"/>
+        <c:axId val="1173093152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430452656"/>
+        <c:crossAx val="1173089120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6007,16 +6007,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5976</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4148</c:v>
+                  <c:v>1.3596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.116</c:v>
+                  <c:v>1.1352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6032,11 +6032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430492032"/>
-        <c:axId val="1430496064"/>
+        <c:axId val="1173131600"/>
+        <c:axId val="1173135632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430492032"/>
+        <c:axId val="1173131600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6154,12 +6154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430496064"/>
+        <c:crossAx val="1173135632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430496064"/>
+        <c:axId val="1173135632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6273,7 +6273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430492032"/>
+        <c:crossAx val="1173131600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7163,16 +7163,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>298.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1447.0</c:v>
+                  <c:v>653.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7188,11 +7188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430529280"/>
-        <c:axId val="1430533312"/>
+        <c:axId val="1173180768"/>
+        <c:axId val="1173184800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430529280"/>
+        <c:axId val="1173180768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7310,12 +7310,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430533312"/>
+        <c:crossAx val="1173184800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430533312"/>
+        <c:axId val="1173184800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7426,7 +7426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430529280"/>
+        <c:crossAx val="1173180768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8316,16 +8316,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>298.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1447.0</c:v>
+                  <c:v>653.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8341,11 +8341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430567744"/>
-        <c:axId val="1430571776"/>
+        <c:axId val="1173223344"/>
+        <c:axId val="1173227376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430567744"/>
+        <c:axId val="1173223344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8463,12 +8463,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430571776"/>
+        <c:crossAx val="1173227376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430571776"/>
+        <c:axId val="1173227376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8578,7 +8578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430567744"/>
+        <c:crossAx val="1173223344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9472,16 +9472,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>115.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>882.0</c:v>
+                  <c:v>489.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9497,11 +9497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430598400"/>
-        <c:axId val="1430602432"/>
+        <c:axId val="1173266272"/>
+        <c:axId val="1173270304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430598400"/>
+        <c:axId val="1173266272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9619,12 +9619,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430602432"/>
+        <c:crossAx val="1173270304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430602432"/>
+        <c:axId val="1173270304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9732,7 +9732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430598400"/>
+        <c:crossAx val="1173266272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10622,16 +10622,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>115.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>882.0</c:v>
+                  <c:v>489.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10647,11 +10647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430633024"/>
-        <c:axId val="1430637056"/>
+        <c:axId val="1173306032"/>
+        <c:axId val="1173310064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430633024"/>
+        <c:axId val="1173306032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10773,12 +10773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430637056"/>
+        <c:crossAx val="1173310064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430637056"/>
+        <c:axId val="1173310064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10886,7 +10886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430633024"/>
+        <c:crossAx val="1173306032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11780,16 +11780,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.998769</c:v>
+                  <c:v>1.002402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.002492</c:v>
+                  <c:v>0.998402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.996541</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.991319</c:v>
+                  <c:v>1.018965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11805,11 +11805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430671584"/>
-        <c:axId val="1430675616"/>
+        <c:axId val="1198534288"/>
+        <c:axId val="1198538320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430671584"/>
+        <c:axId val="1198534288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11927,12 +11927,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430675616"/>
+        <c:crossAx val="1198538320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430675616"/>
+        <c:axId val="1198538320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12040,7 +12040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430671584"/>
+        <c:crossAx val="1198534288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17571,7 +17571,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17607,7 +17607,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17645,7 +17645,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17683,7 +17683,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17721,7 +17721,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17759,7 +17759,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17797,7 +17797,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17835,7 +17835,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17873,7 +17873,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17911,7 +17911,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18199,8 +18199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18247,27 +18247,27 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -18335,7 +18335,7 @@
         <v>0.59760000000000002</v>
       </c>
       <c r="J4" s="5">
-        <v>0.5988</v>
+        <v>0.60119999999999996</v>
       </c>
       <c r="K4" s="11">
         <v>50</v>
@@ -18344,7 +18344,7 @@
         <v>0.5988</v>
       </c>
       <c r="M4" s="12">
-        <v>0.5988</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -18383,7 +18383,7 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="M5" s="12">
-        <v>1.194</v>
+        <v>1.1976</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -18413,7 +18413,7 @@
         <v>1.7796000000000001</v>
       </c>
       <c r="J6" s="5">
-        <v>2.3795999999999999</v>
+        <v>2.3927999999999998</v>
       </c>
       <c r="K6" s="11">
         <v>200</v>
@@ -18422,7 +18422,7 @@
         <v>1.8240000000000001</v>
       </c>
       <c r="M6" s="12">
-        <v>2.3879999999999999</v>
+        <v>2.3868</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -18452,7 +18452,7 @@
         <v>1.806</v>
       </c>
       <c r="J7" s="5">
-        <v>2.6316000000000002</v>
+        <v>2.6796000000000002</v>
       </c>
       <c r="K7" s="11">
         <v>300</v>
@@ -18461,7 +18461,7 @@
         <v>1.8804000000000001</v>
       </c>
       <c r="M7" s="12">
-        <v>2.6556000000000002</v>
+        <v>2.6303999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -18503,27 +18503,27 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -18574,7 +18574,7 @@
       <c r="C12" s="10">
         <v>1.1988000000000001</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="22">
         <v>50</v>
       </c>
       <c r="E12" s="10">
@@ -18600,7 +18600,7 @@
         <v>0.59640000000000004</v>
       </c>
       <c r="M12" s="12">
-        <v>0.59760000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -18630,7 +18630,7 @@
         <v>2.3028</v>
       </c>
       <c r="J13" s="10">
-        <v>2.3904000000000001</v>
+        <v>2.3915999999999999</v>
       </c>
       <c r="K13" s="11">
         <v>100</v>
@@ -18669,7 +18669,7 @@
         <v>2.5571999999999999</v>
       </c>
       <c r="J14" s="10">
-        <v>3.8795999999999999</v>
+        <v>3.9516</v>
       </c>
       <c r="K14" s="11">
         <v>200</v>
@@ -18678,7 +18678,7 @@
         <v>1.1208</v>
       </c>
       <c r="M14" s="12">
-        <v>1.4148000000000001</v>
+        <v>1.3595999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -18708,7 +18708,7 @@
         <v>2.2464</v>
       </c>
       <c r="J15" s="16">
-        <v>4.2023999999999999</v>
+        <v>4.1856</v>
       </c>
       <c r="K15" s="17">
         <v>300</v>
@@ -18717,7 +18717,7 @@
         <v>1.4339999999999999</v>
       </c>
       <c r="M15" s="18">
-        <v>1.1160000000000001</v>
+        <v>1.1352</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -18744,27 +18744,27 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24" t="s">
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -18828,20 +18828,20 @@
       <c r="H20" s="9">
         <v>50</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="23">
         <v>654</v>
       </c>
-      <c r="J20" s="31">
-        <v>41</v>
+      <c r="J20" s="23">
+        <v>38</v>
       </c>
       <c r="K20" s="11">
         <v>50</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="23">
         <v>654</v>
       </c>
-      <c r="M20" s="31">
-        <v>41</v>
+      <c r="M20" s="23">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -18867,20 +18867,20 @@
       <c r="H21" s="9">
         <v>100</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="23">
         <v>1615</v>
       </c>
-      <c r="J21" s="31">
-        <v>298</v>
+      <c r="J21" s="23">
+        <v>229</v>
       </c>
       <c r="K21" s="11">
         <v>100</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="23">
         <v>1615</v>
       </c>
-      <c r="M21" s="31">
-        <v>298</v>
+      <c r="M21" s="23">
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -18906,59 +18906,59 @@
       <c r="H22" s="9">
         <v>200</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="23">
         <v>1549</v>
       </c>
-      <c r="J22" s="31">
-        <v>1447</v>
+      <c r="J22" s="23">
+        <v>653</v>
       </c>
       <c r="K22" s="11">
         <v>200</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="23">
         <v>1549</v>
       </c>
-      <c r="M22" s="31">
-        <v>1447</v>
+      <c r="M22" s="23">
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>300</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="23">
         <v>405</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="23">
         <v>421</v>
       </c>
       <c r="D23" s="11">
         <v>300</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="23">
         <v>405</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="23">
         <v>421</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="9">
         <v>300</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="23">
         <v>1534</v>
       </c>
-      <c r="J23" s="31">
-        <v>177</v>
+      <c r="J23" s="23">
+        <v>154</v>
       </c>
       <c r="K23" s="11">
         <v>300</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="23">
         <v>1534</v>
       </c>
-      <c r="M23" s="31">
-        <v>177</v>
+      <c r="M23" s="23">
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -19000,27 +19000,27 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="24" t="s">
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -19084,20 +19084,20 @@
       <c r="H28" s="9">
         <v>100</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="23">
         <v>1145</v>
       </c>
       <c r="J28" s="14">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K28" s="11">
         <v>50</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="23">
         <v>1145</v>
       </c>
       <c r="M28" s="14">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -19123,20 +19123,20 @@
       <c r="H29" s="9">
         <v>200</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="23">
         <v>1584</v>
       </c>
       <c r="J29" s="14">
-        <v>882</v>
+        <v>489</v>
       </c>
       <c r="K29" s="11">
         <v>100</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="23">
         <v>1584</v>
       </c>
       <c r="M29" s="14">
-        <v>882</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -19162,20 +19162,20 @@
       <c r="H30" s="9">
         <v>400</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="23">
         <v>1537</v>
       </c>
       <c r="J30" s="14">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="K30" s="11">
         <v>200</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="23">
         <v>1537</v>
       </c>
       <c r="M30" s="14">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -19205,7 +19205,7 @@
         <v>1538</v>
       </c>
       <c r="J31" s="20">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K31" s="17">
         <v>300</v>
@@ -19214,24 +19214,24 @@
         <v>1538</v>
       </c>
       <c r="M31" s="20">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="4:10" ht="18" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
@@ -19272,7 +19272,7 @@
         <v>0.99871699999999997</v>
       </c>
       <c r="J35" s="12">
-        <v>0.99876900000000002</v>
+        <v>1.002402</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
@@ -19293,7 +19293,7 @@
         <v>1.00248</v>
       </c>
       <c r="J36" s="12">
-        <v>1.0024919999999999</v>
+        <v>0.99840200000000001</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
@@ -19314,7 +19314,7 @@
         <v>0.97529900000000003</v>
       </c>
       <c r="J37" s="12">
-        <v>0.99654100000000001</v>
+        <v>1.0023</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
@@ -19335,7 +19335,7 @@
         <v>0.96073500000000001</v>
       </c>
       <c r="J38" s="12">
-        <v>0.99131899999999995</v>
+        <v>1.0189649999999999</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
@@ -19348,17 +19348,17 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="25"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="25"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="4:10" ht="18" x14ac:dyDescent="0.25">
       <c r="D41" s="7" t="s">
@@ -19399,7 +19399,7 @@
         <v>2.0051299999999999</v>
       </c>
       <c r="J42" s="12">
-        <v>2.0034879999999999</v>
+        <v>1.9970019999999999</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
@@ -19420,7 +19420,7 @@
         <v>2.0650569999999999</v>
       </c>
       <c r="J43" s="12">
-        <v>1.994013</v>
+        <v>1.9945539999999999</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
@@ -19441,7 +19441,7 @@
         <v>2.279903</v>
       </c>
       <c r="J44" s="12">
-        <v>2.7402389999999999</v>
+        <v>2.9058039999999998</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
@@ -19462,11 +19462,17 @@
         <v>1.5656479999999999</v>
       </c>
       <c r="J45" s="18">
-        <v>3.7631070000000002</v>
+        <v>3.6870850000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="D40:F40"/>
@@ -19481,12 +19487,6 @@
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
